--- a/data/trans_camb/P20B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>16.73037350831866</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>13.47353857025362</v>
+        <v>13.47353857025361</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>25.43859597983311</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.8320391033543</v>
+        <v>-10.58518655326478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-30.46404782372758</v>
+        <v>-27.97682017312594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-45.59724589483694</v>
+        <v>-38.52691226544605</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.52688685229291</v>
+        <v>14.82275500432996</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.869331123041377</v>
+        <v>7.588128917023118</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.13862107535434</v>
+        <v>4.705011602134401</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.217105440109715</v>
+        <v>4.78761626136772</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.546634857146518</v>
+        <v>-9.318207364154413</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.25624569874027</v>
+        <v>-15.3926817439455</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>51.84418562874448</v>
+        <v>57.69112909368944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>42.64970476385901</v>
+        <v>41.93477447563549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.82018462401248</v>
+        <v>26.90707257306796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46.2391752421924</v>
+        <v>44.89238013758155</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>34.3009364778233</v>
+        <v>32.94299930298766</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.17444915647551</v>
+        <v>27.86912292871094</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>41.03233265669717</v>
+        <v>40.95363857132374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.35035632274469</v>
+        <v>26.22093665980756</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.01043024708805</v>
+        <v>17.49245827984415</v>
       </c>
     </row>
     <row r="7">
@@ -786,23 +786,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3423684813396365</v>
+        <v>-0.2704838471473866</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7459987855893109</v>
+        <v>-0.6495524949340409</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.06636017830575619</v>
+        <v>0.0738533286603598</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.51253514897842</v>
+        <v>-0.4776624227113144</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6954799051185223</v>
+        <v>-0.6900478075572806</v>
       </c>
     </row>
     <row r="9">
@@ -813,21 +813,23 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.380886541074028</v>
-      </c>
-      <c r="D9" s="6" t="inlineStr"/>
+        <v>7.756967091983432</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>4.747963474870287</v>
+      </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>10.35504962109975</v>
+        <v>11.03033615521697</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>7.098723851976358</v>
+        <v>6.771565038715266</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.840071696712404</v>
+        <v>4.318045674487022</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +859,7 @@
         <v>5.391429742933321</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.819803440867279</v>
+        <v>7.819803440867274</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.21129749668733</v>
@@ -866,7 +868,7 @@
         <v>7.805075171465487</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>16.32966179605577</v>
+        <v>16.32966179605578</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +879,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.75248015595491</v>
+        <v>-15.67107854622933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.01023801601972</v>
+        <v>-15.19657817842836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.543950148456193</v>
+        <v>-2.243350574927955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.33505792939308</v>
+        <v>-10.95640757205147</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.34288985292414</v>
+        <v>-14.85529505148298</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.56426292989993</v>
+        <v>-10.92928815159076</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-7.606671842864611</v>
+        <v>-7.205417565877601</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.003621828532102</v>
+        <v>-7.447160761290402</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.515453532730621</v>
+        <v>2.56018137145081</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +914,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>27.54992357279754</v>
+        <v>27.07630368244508</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>38.14056610412661</v>
+        <v>36.5104942617928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42.42416118530006</v>
+        <v>42.59974805015867</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.84439516583961</v>
+        <v>21.31798200226894</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>25.95980616555832</v>
+        <v>25.1904928301572</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.2546936869726</v>
+        <v>28.99507107834965</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.40921952900414</v>
+        <v>18.80308351626049</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>24.20079011963338</v>
+        <v>23.71860426989647</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>32.63611984434018</v>
+        <v>32.55743336095454</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +964,7 @@
         <v>0.2830606398589529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4105550236362431</v>
+        <v>0.4105550236362428</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.322006807990807</v>
@@ -971,7 +973,7 @@
         <v>0.4046316157666435</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8465642280572996</v>
+        <v>0.8465642280573001</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +984,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4712645400075243</v>
+        <v>-0.5055836594516288</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5228569384438196</v>
+        <v>-0.5337949920351049</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1864889875237647</v>
+        <v>-0.1095631706567306</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3984295443861005</v>
+        <v>-0.4393828362472846</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5197556571759128</v>
+        <v>-0.5989743854331797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4407402568002525</v>
+        <v>-0.4240135192600873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2983298577837263</v>
+        <v>-0.3151633903955016</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3121373861420912</v>
+        <v>-0.3271404854415147</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.009869972329284596</v>
+        <v>0.06624430462261807</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1019,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.547831204192214</v>
+        <v>3.440668024638237</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.532647996191022</v>
+        <v>4.293254005554005</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.041157307603883</v>
+        <v>5.286810320313712</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.131055934111777</v>
+        <v>2.232192773082789</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.675834062396144</v>
+        <v>2.150822719509524</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.979363166925157</v>
+        <v>2.889161256661629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.439030247310628</v>
+        <v>1.441270163260787</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.860577541944239</v>
+        <v>1.678319076311537</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.412543722345803</v>
+        <v>2.43035963974967</v>
       </c>
     </row>
     <row r="16">
@@ -1091,31 +1093,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.25862903004806</v>
+        <v>-31.16992149028698</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-29.7934641556022</v>
+        <v>-26.00379325054798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.39357753062671</v>
+        <v>-17.29537743701171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.20254354259464</v>
+        <v>-9.742752354566827</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.79097098184434</v>
+        <v>-14.67885360107715</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.26091523581072</v>
+        <v>-14.52529162949585</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.96617587386315</v>
+        <v>-7.229174877386548</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.26722805086271</v>
+        <v>-8.822840657746697</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.315920194839765</v>
+        <v>-1.663527441621085</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1128,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>31.22146404891563</v>
+        <v>31.55998366065975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>49.55461998856789</v>
+        <v>49.21064854807199</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49.45421226233216</v>
+        <v>48.52600773219245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36.22384049785791</v>
+        <v>35.37156065657918</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>29.07934972448162</v>
+        <v>29.64586497397548</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.56981773583145</v>
+        <v>23.68104985638933</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>26.36252187345697</v>
+        <v>26.89197550726532</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>28.04915837023647</v>
+        <v>28.88712716547403</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>32.89898524951848</v>
+        <v>32.19330789190823</v>
       </c>
     </row>
     <row r="19">
@@ -1199,22 +1201,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.5022238692228316</v>
+        <v>-0.527776247192886</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6469785080690156</v>
+        <v>-0.8165384819135957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5745058924568898</v>
+        <v>-0.5383979094052074</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3452559870339915</v>
+        <v>-0.3916538304829301</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4864446244643703</v>
+        <v>-0.4417477761321146</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09578150275927311</v>
+        <v>-0.1539212585646007</v>
       </c>
     </row>
     <row r="21">
@@ -1231,12 +1233,14 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>7.0169008976637</v>
+        <v>7.897220587898381</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.2180755426948</v>
-      </c>
-      <c r="K21" s="6" t="inlineStr"/>
+        <v>7.341794062279108</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>7.578127033630419</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1256,7 +1260,7 @@
         <v>16.64004823411166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25.77740273301734</v>
+        <v>25.77740273301733</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-14.28275318654647</v>
@@ -1265,7 +1269,7 @@
         <v>-0.04331021258377477</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-4.902369559613284</v>
+        <v>-4.902369559613279</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-6.978148373445367</v>
@@ -1274,7 +1278,7 @@
         <v>3.76332581597843</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.026762309681909</v>
+        <v>5.026762309681904</v>
       </c>
     </row>
     <row r="23">
@@ -1285,31 +1289,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-28.26783272722322</v>
+        <v>-26.50116378699251</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-23.99861166197124</v>
+        <v>-22.2327392015067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.61646581232496</v>
+        <v>-11.89879771828876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-38.95867708554544</v>
+        <v>-41.14949622337763</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-29.51111499625992</v>
+        <v>-31.67318357651412</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-32.69655255237071</v>
+        <v>-30.13029971270918</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-26.42528635450954</v>
+        <v>-26.7276162964537</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-17.7804767839243</v>
+        <v>-17.47047998387474</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.44054775426293</v>
+        <v>-18.76623013804633</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1324,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>34.7511769649444</v>
+        <v>34.68614895154843</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>39.22655794546723</v>
+        <v>40.52764874423841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53.67326043581001</v>
+        <v>54.50595898750989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.971508952202914</v>
+        <v>9.611097929167506</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>28.25071467103766</v>
+        <v>23.95976187488294</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.92766184224341</v>
+        <v>24.30765760735129</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.91183595466367</v>
+        <v>12.10607221618696</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>24.85824531417763</v>
+        <v>24.14424775017811</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.6895151264989</v>
+        <v>25.46487678919272</v>
       </c>
     </row>
     <row r="25">
@@ -1361,7 +1365,7 @@
         <v>1.269210799115822</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.966157637381988</v>
+        <v>1.966157637381987</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4092417236822803</v>
@@ -1370,7 +1374,7 @@
         <v>-0.001240961446251503</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1404669073602321</v>
+        <v>-0.1404669073602319</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2431084856948263</v>
@@ -1379,7 +1383,7 @@
         <v>0.1311087685925837</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1751250486024313</v>
+        <v>0.1751250486024311</v>
       </c>
     </row>
     <row r="26">
@@ -1393,22 +1397,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7866821060396648</v>
+        <v>-0.8154647234971836</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5878392152687524</v>
+        <v>-0.6138336910442885</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6573951770564918</v>
+        <v>-0.6200950524548432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6372590862746198</v>
+        <v>-0.6664365056544945</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4221246757022264</v>
+        <v>-0.439099075482455</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4212729436362397</v>
+        <v>-0.4287351981335208</v>
       </c>
     </row>
     <row r="27">
@@ -1422,22 +1426,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>0.6146836341972973</v>
+        <v>0.597011321219314</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.600124883786958</v>
+        <v>1.316603609593901</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.451732597297495</v>
+        <v>1.327514296523153</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.92144340974618</v>
+        <v>0.8339727268287599</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.803796491540396</v>
+        <v>1.738658667450986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.517514689573448</v>
+        <v>1.681737283971492</v>
       </c>
     </row>
     <row r="28">
@@ -1467,7 +1471,7 @@
         <v>28.76608306049475</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.010903617435597</v>
+        <v>8.0109036174356</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>25.66186773960013</v>
@@ -1476,7 +1480,7 @@
         <v>31.62449572073833</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>15.36750888059241</v>
+        <v>15.3675088805924</v>
       </c>
     </row>
     <row r="29">
@@ -1487,31 +1491,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.164325331030746</v>
+        <v>-4.525435091948255</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.783581844242473</v>
+        <v>-7.712496346018827</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.208058200377657</v>
+        <v>-8.091783361993908</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.021024643523387</v>
+        <v>-0.476709890828082</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.637822853067711</v>
+        <v>2.003539202119576</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.83621001064874</v>
+        <v>-11.09628504617588</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.43284654598764</v>
+        <v>5.906098540837382</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>8.130519960321807</v>
+        <v>7.782482945502991</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.512517486278409</v>
+        <v>-4.513868648340099</v>
       </c>
     </row>
     <row r="30">
@@ -1522,31 +1526,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>65.69934696701986</v>
+        <v>66.93301711770707</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>70.6024602186168</v>
+        <v>70.78831618588724</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>70.08602077177882</v>
+        <v>70.35115800265321</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45.05611697892883</v>
+        <v>45.9249420884649</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>63.7892639798059</v>
+        <v>60.99661800909222</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.83070704539979</v>
+        <v>24.87045346921866</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>45.1535560210319</v>
+        <v>45.04493299738208</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>57.42835270946771</v>
+        <v>56.57725560571377</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>36.20062648689983</v>
+        <v>33.75691447831702</v>
       </c>
     </row>
     <row r="31">
@@ -1592,25 +1596,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1355197502344284</v>
+        <v>-0.3338352407138209</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3532621523943212</v>
+        <v>-0.4122156590528601</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4173777110794167</v>
+        <v>-0.3644863169433543</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>0.1239263693268041</v>
+        <v>0.1603736637742681</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2598161179400877</v>
+        <v>0.2060606207595535</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4203649053376873</v>
+        <v>-0.4653423118595623</v>
       </c>
     </row>
     <row r="33">
@@ -1621,25 +1625,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>9.179138491234095</v>
+        <v>9.183100434915167</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>10.95110589531769</v>
+        <v>9.963837486878598</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>10.843392224289</v>
+        <v>10.53510658672512</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>11.82969703404399</v>
+        <v>10.8061132690721</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>15.09699551848153</v>
+        <v>14.24148375131049</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>8.778048144132832</v>
+        <v>6.764757152785321</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1664,7 @@
         <v>0.4778075850951191</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-9.387308668890915</v>
+        <v>-9.38730866889091</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-3.961265694608102</v>
@@ -1669,7 +1673,7 @@
         <v>10.67831793469129</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-4.625062558138548</v>
+        <v>-4.625062558138546</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.212193550894056</v>
@@ -1678,7 +1682,7 @@
         <v>8.814286543534857</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.099975662681548</v>
+        <v>-3.09997566268154</v>
       </c>
     </row>
     <row r="35">
@@ -1689,31 +1693,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-42.06929613586065</v>
+        <v>-36.85506146429137</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-36.01229975857951</v>
+        <v>-33.98996413085614</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-39.79916675464018</v>
+        <v>-42.83702892638976</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-23.74692908100894</v>
+        <v>-21.66082207291772</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.8698536229945</v>
+        <v>-14.74168680148892</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-24.56744959854394</v>
+        <v>-23.41606926534221</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-18.38717976084417</v>
+        <v>-18.12252978115616</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-10.84174897779188</v>
+        <v>-10.40979174680489</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-19.61081176706998</v>
+        <v>-19.02848265336484</v>
       </c>
     </row>
     <row r="36">
@@ -1724,31 +1728,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>33.17763975618036</v>
+        <v>39.02189028199882</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>39.38401265330316</v>
+        <v>35.16255467151317</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.04388126342343</v>
+        <v>17.62081383651712</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.73514358016864</v>
+        <v>16.76663261591008</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>33.21217585151654</v>
+        <v>32.94746460422349</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>14.05029901580728</v>
+        <v>12.64298683069576</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>18.9310475682201</v>
+        <v>18.31953362835338</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>26.04800622851065</v>
+        <v>28.32905645043139</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.2965208230342</v>
+        <v>11.01932847761197</v>
       </c>
     </row>
     <row r="37">
@@ -1765,7 +1769,7 @@
         <v>0.01383241793965451</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2717603924408011</v>
+        <v>-0.2717603924408009</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.2033366316150317</v>
@@ -1774,7 +1778,7 @@
         <v>0.5481311700727316</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2374101396078495</v>
+        <v>-0.2374101396078494</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.05197550454865584</v>
@@ -1783,7 +1787,7 @@
         <v>0.3779322122269662</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1329183768034327</v>
+        <v>-0.1329183768034324</v>
       </c>
     </row>
     <row r="38">
@@ -1793,32 +1797,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="n">
-        <v>-0.7905413845746676</v>
-      </c>
+      <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.6643450799268226</v>
+        <v>-0.6490529120507162</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7044178423836445</v>
+        <v>-0.7491738531839337</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.8106436165657247</v>
+        <v>-0.8248510605344765</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4833646965596895</v>
+        <v>-0.5410184494794598</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7716576750131975</v>
+        <v>-0.8012769887667727</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5967529341030051</v>
+        <v>-0.6083068231361342</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3417375421880736</v>
+        <v>-0.3734931047108883</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5644432511243209</v>
+        <v>-0.5769924820994564</v>
       </c>
     </row>
     <row r="39">
@@ -1828,32 +1830,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="n">
-        <v>3.329431357384368</v>
-      </c>
+      <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>3.850250503252569</v>
+        <v>3.550305910807328</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.727923394732778</v>
+        <v>1.199204192913549</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.31160659026928</v>
+        <v>1.890149109163325</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.704922238439418</v>
+        <v>3.371823366937821</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.954286464952154</v>
+        <v>1.708393082757009</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.280355009826988</v>
+        <v>1.213140413667539</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.849878162471144</v>
+        <v>2.0967702331447</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8582941658457823</v>
+        <v>0.8994735839864307</v>
       </c>
     </row>
     <row r="40">
@@ -1883,7 +1883,7 @@
         <v>-5.344988268967443</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.05727349100897</v>
+        <v>1.057273491008975</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-5.315390337552195</v>
@@ -1903,31 +1903,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-29.55710064472663</v>
+        <v>-30.39564134611891</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-28.23395093945399</v>
+        <v>-27.87438691596009</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-33.83421130304501</v>
+        <v>-33.12765493714327</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-21.76075330109122</v>
+        <v>-21.95881489565731</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-21.79478774726936</v>
+        <v>-23.07036474837986</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-15.59475939953774</v>
+        <v>-16.71470537037692</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-19.9991695645713</v>
+        <v>-18.82775065596398</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-19.00477756856763</v>
+        <v>-19.02386093393558</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-18.1159558457582</v>
+        <v>-16.86449726340356</v>
       </c>
     </row>
     <row r="42">
@@ -1938,31 +1938,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.97316598998986</v>
+        <v>19.88998111242836</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.68662209820694</v>
+        <v>24.48171403244098</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.791120507363997</v>
+        <v>9.78140816245382</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.54994337959485</v>
+        <v>12.16662250514968</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>12.37069729359517</v>
+        <v>12.60642461653145</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>16.9283103924616</v>
+        <v>15.6924522238676</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.677737281063714</v>
+        <v>8.864721062118958</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.853976090481604</v>
+        <v>11.20290509537965</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.91035810589524</v>
+        <v>8.096027488802921</v>
       </c>
     </row>
     <row r="43">
@@ -1979,7 +1979,7 @@
         <v>-0.07995225658655972</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3323704091199207</v>
+        <v>-0.3323704091199208</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1512028088888861</v>
@@ -1988,7 +1988,7 @@
         <v>-0.1767143354155806</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03495524646909173</v>
+        <v>0.03495524646909191</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1619516800177991</v>
@@ -2008,31 +2008,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6380422911571997</v>
+        <v>-0.6603984247285009</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6335669570556653</v>
+        <v>-0.6204798805151381</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7061390611814397</v>
+        <v>-0.6864743057920221</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5722279529191162</v>
+        <v>-0.5605060591809209</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5866071055474164</v>
+        <v>-0.6228584120897344</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3850156816033358</v>
+        <v>-0.393925608237532</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5067210549560555</v>
+        <v>-0.4957232869118558</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4951486047294488</v>
+        <v>-0.4849280444327944</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4312402670504936</v>
+        <v>-0.4261188445109452</v>
       </c>
     </row>
     <row r="45">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7755233390593329</v>
+        <v>0.7844869351508256</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.002825347181685</v>
+        <v>1.045859155747465</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.44230978079274</v>
+        <v>0.472489521382965</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5697751024833909</v>
+        <v>0.5785647690454079</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6065929216340804</v>
+        <v>0.5353130935294353</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8725537652955492</v>
+        <v>0.7122083640486506</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3085186588427212</v>
+        <v>0.3561065502607308</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4141117516276953</v>
+        <v>0.4777204636292118</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2790332530713489</v>
+        <v>0.3336866004663255</v>
       </c>
     </row>
     <row r="46">
@@ -2097,7 +2097,7 @@
         <v>-0.2068723255367111</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.84211326861576</v>
+        <v>-3.842113268615766</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.086493772867331</v>
@@ -2106,7 +2106,7 @@
         <v>3.386653111487328</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.043154777273323</v>
+        <v>2.043154777273315</v>
       </c>
     </row>
     <row r="47">
@@ -2117,31 +2117,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-29.28723180997828</v>
+        <v>-27.52786548150869</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-14.51368622161154</v>
+        <v>-14.13958775346694</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-14.80833502138153</v>
+        <v>-17.5334315757755</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-10.36554155630063</v>
+        <v>-9.351026674952662</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-16.37205408195913</v>
+        <v>-15.50496708545885</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-18.27258170954871</v>
+        <v>-18.74088317154284</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-12.16105506561204</v>
+        <v>-10.99393070991855</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-10.30717990281603</v>
+        <v>-8.890396119268877</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-11.59267960317799</v>
+        <v>-11.29347437563094</v>
       </c>
     </row>
     <row r="48">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>10.99874724078031</v>
+        <v>12.27802426023999</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>30.82480761525809</v>
+        <v>28.15043517451424</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>31.57898214299172</v>
+        <v>29.85484316153132</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>22.66094067975307</v>
+        <v>20.76827712263431</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>17.45385649001157</v>
+        <v>16.72741690330396</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>11.33104515037811</v>
+        <v>11.98143662593031</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>13.53616132336349</v>
+        <v>14.50275816920238</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>17.65915062704672</v>
+        <v>17.00848138281604</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>15.71382197567267</v>
+        <v>14.50614095463553</v>
       </c>
     </row>
     <row r="49">
@@ -2202,7 +2202,7 @@
         <v>-0.0109975885768855</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2042514912732037</v>
+        <v>-0.204251491273204</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.05165036835811188</v>
@@ -2211,7 +2211,7 @@
         <v>0.1609966711984327</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.09712867159864447</v>
+        <v>0.09712867159864408</v>
       </c>
     </row>
     <row r="50">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7917017722441221</v>
+        <v>-0.7847324179646562</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4351348310020645</v>
+        <v>-0.4423055581631927</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4347066615051556</v>
+        <v>-0.4680775988738602</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4058290061387743</v>
+        <v>-0.3752801944096766</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6249727439370881</v>
+        <v>-0.6086605243364123</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6975203434046673</v>
+        <v>-0.7324139553639911</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4531246056127972</v>
+        <v>-0.4210214006630188</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3639157191696425</v>
+        <v>-0.3643110519096575</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4191549953169983</v>
+        <v>-0.4121106478412012</v>
       </c>
     </row>
     <row r="51">
@@ -2257,31 +2257,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.9060633692024016</v>
+        <v>1.057298182003821</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.338122569426671</v>
+        <v>1.968897878756446</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.738979229264219</v>
+        <v>2.156606917926176</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2.061980094455347</v>
+        <v>1.844534855216179</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.626556061311809</v>
+        <v>1.505472062586087</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.107082578680644</v>
+        <v>1.151103247316751</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9095771710955742</v>
+        <v>1.043733945224574</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.255151950068288</v>
+        <v>1.288490076999606</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.119835651150139</v>
+        <v>1.018379917489268</v>
       </c>
     </row>
     <row r="52">
@@ -2311,7 +2311,7 @@
         <v>4.160720771464726</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3.141842024295754</v>
+        <v>3.141842024295757</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>4.241689939871918</v>
@@ -2331,31 +2331,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-6.519956433010711</v>
+        <v>-7.365272657010223</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.467336721336695</v>
+        <v>-2.809655200226703</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.768840903794099</v>
+        <v>-3.292083817605517</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.579037799094502</v>
+        <v>-2.593775447396851</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.761665725750266</v>
+        <v>-2.600028479523741</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-4.004231655997832</v>
+        <v>-4.800924277549559</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.273630972154484</v>
+        <v>-1.210449698494341</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.5961020339376671</v>
+        <v>-0.2761157329002042</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.5411140628489298</v>
+        <v>-0.07253495610983988</v>
       </c>
     </row>
     <row r="54">
@@ -2366,31 +2366,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>13.32603901859572</v>
+        <v>13.26516280079561</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>18.31903139319286</v>
+        <v>18.85680690457307</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>17.21207928626198</v>
+        <v>17.43621845429179</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>11.12431365962119</v>
+        <v>11.2661378996574</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>12.13913561957914</v>
+        <v>11.52335621393874</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>10.12934961433205</v>
+        <v>9.984632423801845</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>10.10545496002653</v>
+        <v>9.788536151379361</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>11.97075156888943</v>
+        <v>11.76053322916009</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>11.39007677037086</v>
+        <v>11.35286708398112</v>
       </c>
     </row>
     <row r="55">
@@ -2416,7 +2416,7 @@
         <v>0.2060252675890086</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1555737285273417</v>
+        <v>0.1555737285273419</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1900820405732848</v>
@@ -2436,31 +2436,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2092520417716738</v>
+        <v>-0.2291610811948952</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.09753916744173521</v>
+        <v>-0.09047452642928736</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.08338674930878</v>
+        <v>-0.1088861315725277</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1046289716752476</v>
+        <v>-0.1120062622001728</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1200202004725225</v>
+        <v>-0.1160266358785764</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1672292327582431</v>
+        <v>-0.1847984524491625</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.05452344200615504</v>
+        <v>-0.0499725645940675</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.03190832015305754</v>
+        <v>-0.01099213933046863</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.01966829401652957</v>
+        <v>-0.002670691343661478</v>
       </c>
     </row>
     <row r="57">
@@ -2471,31 +2471,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6377191044614668</v>
+        <v>0.6660712217176924</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.9046291238919448</v>
+        <v>0.9485104577397943</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.869369663156829</v>
+        <v>0.8623660454428105</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.6619539312840353</v>
+        <v>0.6629696625020565</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7519315696089859</v>
+        <v>0.7090446874794741</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.634052372443038</v>
+        <v>0.5801248619323671</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5329650915387664</v>
+        <v>0.5057944138274129</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6366073441718187</v>
+        <v>0.6143610789352133</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5834166708714712</v>
+        <v>0.5852971855013593</v>
       </c>
     </row>
     <row r="58">
